--- a/scripts/blm/data/sampleVSpopulation/continuous_by_district.xlsx
+++ b/scripts/blm/data/sampleVSpopulation/continuous_by_district.xlsx
@@ -15,16 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>AVG(AGE_DOM)</t>
-  </si>
-  <si>
-    <t>AVG(QMDA_DOM)</t>
-  </si>
-  <si>
-    <t>AVG(SDI)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Coos Bay District</t>
   </si>
@@ -44,6 +35,18 @@
     <t>Salem District</t>
   </si>
   <si>
+    <t>avg_age_dom</t>
+  </si>
+  <si>
+    <t>avg_baa_ge_3</t>
+  </si>
+  <si>
+    <t>avg_qmda_dom</t>
+  </si>
+  <si>
+    <t>avg_sdi</t>
+  </si>
+  <si>
     <t>batch</t>
   </si>
   <si>
@@ -56,13 +59,16 @@
     <t>population</t>
   </si>
   <si>
-    <t>stdev(AGE_DOM)</t>
-  </si>
-  <si>
-    <t>stdev(QMDA_DOM)</t>
-  </si>
-  <si>
-    <t>stdev(SDI)</t>
+    <t>stdev_age_dom</t>
+  </si>
+  <si>
+    <t>stdev_baa_ge_3</t>
+  </si>
+  <si>
+    <t>stdev_qmda_dom</t>
+  </si>
+  <si>
+    <t>stdev_sdi</t>
   </si>
 </sst>
 </file>
@@ -446,34 +452,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c s="1" t="s" r="B1">
+        <v>10</v>
+      </c>
+      <c s="1" t="s" r="C1">
+        <v>12</v>
+      </c>
+      <c s="1" t="s" r="D1">
+        <v>8</v>
+      </c>
+      <c s="1" t="s" r="E1">
+        <v>16</v>
+      </c>
+      <c s="1" t="s" r="F1">
         <v>9</v>
       </c>
-      <c s="1" t="s" r="C1">
-        <v>11</v>
-      </c>
-      <c s="1" t="s" r="D1">
-        <v>1</v>
-      </c>
-      <c s="1" t="s" r="E1">
+      <c s="1" t="s" r="G1">
+        <v>17</v>
+      </c>
+      <c s="1" t="s" r="H1">
+        <v>7</v>
+      </c>
+      <c s="1" t="s" r="I1">
+        <v>15</v>
+      </c>
+      <c s="1" t="s" r="J1">
+        <v>6</v>
+      </c>
+      <c s="1" t="s" r="K1">
         <v>14</v>
-      </c>
-      <c s="1" t="s" r="F1">
-        <v>2</v>
-      </c>
-      <c s="1" t="s" r="G1">
-        <v>15</v>
-      </c>
-      <c s="1" t="s" r="H1">
-        <v>1</v>
-      </c>
-      <c s="1" t="s" r="I1">
-        <v>14</v>
-      </c>
-      <c s="1" t="s" r="J1">
-        <v>0</v>
-      </c>
-      <c s="1" t="s" r="K1">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -481,34 +487,34 @@
         <v>0</v>
       </c>
       <c t="s" r="B2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c t="n" r="D2">
         <v>44.873867227979176</v>
       </c>
       <c t="n" r="E2">
-        <v>44.873867227979176</v>
+        <v>29.92944266792885</v>
       </c>
       <c t="n" r="F2">
-        <v>29.92944266792885</v>
+        <v>162.98480647668387</v>
       </c>
       <c t="n" r="G2">
-        <v>29.92944266792885</v>
+        <v>82.60000144569678</v>
       </c>
       <c t="n" r="H2">
-        <v>162.98480647668387</v>
+        <v>41.81452266839381</v>
       </c>
       <c t="n" r="I2">
-        <v>82.60000144569678</v>
+        <v>24.098649697531787</v>
       </c>
       <c t="n" r="J2">
-        <v>44.873867227979176</v>
+        <v>78.84225699481874</v>
       </c>
       <c t="n" r="K2">
-        <v>44.873867227979176</v>
+        <v>64.10855989539714</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -516,34 +522,34 @@
         <v>1</v>
       </c>
       <c t="s" r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D3">
         <v>38.5747453435115</v>
       </c>
       <c t="n" r="E3">
-        <v>38.5747453435115</v>
+        <v>24.504721285962354</v>
       </c>
       <c t="n" r="F3">
-        <v>24.504721285962354</v>
+        <v>141.03859160305342</v>
       </c>
       <c t="n" r="G3">
-        <v>24.504721285962354</v>
+        <v>63.3477382982431</v>
       </c>
       <c t="n" r="H3">
-        <v>141.03859160305342</v>
+        <v>35.9617627480916</v>
       </c>
       <c t="n" r="I3">
-        <v>63.3477382982431</v>
+        <v>20.355358813189373</v>
       </c>
       <c t="n" r="J3">
-        <v>38.5747453435115</v>
+        <v>66.36356549618314</v>
       </c>
       <c t="n" r="K3">
-        <v>38.5747453435115</v>
+        <v>54.00485806376045</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -551,34 +557,34 @@
         <v>2</v>
       </c>
       <c t="s" r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="D4">
         <v>36.63775542635656</v>
       </c>
       <c t="n" r="E4">
-        <v>36.63775542635656</v>
+        <v>17.41047758219812</v>
       </c>
       <c t="n" r="F4">
-        <v>17.41047758219812</v>
+        <v>56.19871395348832</v>
       </c>
       <c t="n" r="G4">
-        <v>17.41047758219812</v>
+        <v>51.597520177291756</v>
       </c>
       <c t="n" r="H4">
-        <v>56.19871395348832</v>
+        <v>12.346090310077509</v>
       </c>
       <c t="n" r="I4">
-        <v>51.597520177291756</v>
+        <v>11.09853276722112</v>
       </c>
       <c t="n" r="J4">
-        <v>36.63775542635656</v>
+        <v>98.39374379844966</v>
       </c>
       <c t="n" r="K4">
-        <v>36.63775542635656</v>
+        <v>75.50673122688113</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -586,34 +592,34 @@
         <v>3</v>
       </c>
       <c t="s" r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c t="n" r="D5">
         <v>34.669872312532824</v>
       </c>
       <c t="n" r="E5">
-        <v>34.669872312532824</v>
+        <v>18.25365573441366</v>
       </c>
       <c t="n" r="F5">
-        <v>18.25365573441366</v>
+        <v>182.93939176717416</v>
       </c>
       <c t="n" r="G5">
-        <v>18.25365573441366</v>
+        <v>96.12344390179047</v>
       </c>
       <c t="n" r="H5">
-        <v>182.93939176717416</v>
+        <v>34.26761588883059</v>
       </c>
       <c t="n" r="I5">
-        <v>96.12344390179047</v>
+        <v>20.718131570145083</v>
       </c>
       <c t="n" r="J5">
-        <v>34.669872312532824</v>
+        <v>88.43749318300992</v>
       </c>
       <c t="n" r="K5">
-        <v>34.669872312532824</v>
+        <v>56.433986331360224</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -621,34 +627,34 @@
         <v>4</v>
       </c>
       <c t="s" r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c t="n" r="D6">
         <v>43.37456904512072</v>
       </c>
       <c t="n" r="E6">
-        <v>43.37456904512072</v>
+        <v>25.97423844008056</v>
       </c>
       <c t="n" r="F6">
-        <v>25.97423844008056</v>
+        <v>163.65311983210893</v>
       </c>
       <c t="n" r="G6">
-        <v>25.97423844008056</v>
+        <v>80.30730807106391</v>
       </c>
       <c t="n" r="H6">
-        <v>163.65311983210893</v>
+        <v>37.11197691500521</v>
       </c>
       <c t="n" r="I6">
-        <v>80.30730807106391</v>
+        <v>21.948739475504354</v>
       </c>
       <c t="n" r="J6">
-        <v>43.37456904512072</v>
+        <v>89.61040640083948</v>
       </c>
       <c t="n" r="K6">
-        <v>43.37456904512072</v>
+        <v>66.84123719884657</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -656,34 +662,34 @@
         <v>5</v>
       </c>
       <c t="s" r="B7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c t="n" r="D7">
         <v>40.77803111353712</v>
       </c>
       <c t="n" r="E7">
-        <v>40.77803111353712</v>
+        <v>24.491199047385784</v>
       </c>
       <c t="n" r="F7">
-        <v>24.491199047385784</v>
+        <v>154.4505073144103</v>
       </c>
       <c t="n" r="G7">
-        <v>24.491199047385784</v>
+        <v>72.74029268298602</v>
       </c>
       <c t="n" r="H7">
-        <v>154.4505073144103</v>
+        <v>39.87961954148467</v>
       </c>
       <c t="n" r="I7">
-        <v>72.74029268298602</v>
+        <v>22.103380155073438</v>
       </c>
       <c t="n" r="J7">
-        <v>40.77803111353712</v>
+        <v>75.84345993449764</v>
       </c>
       <c t="n" r="K7">
-        <v>40.77803111353712</v>
+        <v>71.71119238378132</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -691,34 +697,34 @@
         <v>6</v>
       </c>
       <c t="s" r="B8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="C8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c t="n" r="D8">
         <v>42.58094407232751</v>
       </c>
       <c t="n" r="E8">
-        <v>42.58094407232751</v>
+        <v>30.422110519776144</v>
       </c>
       <c t="n" r="F8">
-        <v>30.422110519776144</v>
+        <v>158.022464757616</v>
       </c>
       <c t="n" r="G8">
-        <v>30.422110519776144</v>
+        <v>83.6755785225239</v>
       </c>
       <c t="n" r="H8">
-        <v>158.022464757616</v>
+        <v>39.27701721663133</v>
       </c>
       <c t="n" r="I8">
-        <v>83.6755785225239</v>
+        <v>23.58514520488287</v>
       </c>
       <c t="n" r="J8">
-        <v>42.58094407232751</v>
+        <v>75.07368933371143</v>
       </c>
       <c t="n" r="K8">
-        <v>42.58094407232751</v>
+        <v>64.99041043161058</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -726,34 +732,34 @@
         <v>7</v>
       </c>
       <c t="s" r="B9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c t="n" r="D9">
         <v>39.610879431551204</v>
       </c>
       <c t="n" r="E9">
-        <v>39.610879431551204</v>
+        <v>24.815546051764297</v>
       </c>
       <c t="n" r="F9">
-        <v>24.815546051764297</v>
+        <v>139.62269337818637</v>
       </c>
       <c t="n" r="G9">
-        <v>24.815546051764297</v>
+        <v>65.14624192458639</v>
       </c>
       <c t="n" r="H9">
-        <v>139.62269337818637</v>
+        <v>37.01034036586307</v>
       </c>
       <c t="n" r="I9">
-        <v>65.14624192458639</v>
+        <v>20.81092072865133</v>
       </c>
       <c t="n" r="J9">
-        <v>39.610879431551204</v>
+        <v>67.1691633078841</v>
       </c>
       <c t="n" r="K9">
-        <v>39.610879431551204</v>
+        <v>55.31432604287939</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -761,34 +767,34 @@
         <v>8</v>
       </c>
       <c t="s" r="B10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c t="n" r="D10">
         <v>33.18884919727752</v>
       </c>
       <c t="n" r="E10">
-        <v>33.18884919727752</v>
+        <v>16.0107667420518</v>
       </c>
       <c t="n" r="F10">
-        <v>16.0107667420518</v>
+        <v>59.03675808163212</v>
       </c>
       <c t="n" r="G10">
-        <v>16.0107667420518</v>
+        <v>58.86730922455596</v>
       </c>
       <c t="n" r="H10">
-        <v>59.03675808163212</v>
+        <v>12.527955129251891</v>
       </c>
       <c t="n" r="I10">
-        <v>58.86730922455596</v>
+        <v>11.244258311757457</v>
       </c>
       <c t="n" r="J10">
-        <v>33.18884919727752</v>
+        <v>91.28495035374289</v>
       </c>
       <c t="n" r="K10">
-        <v>33.18884919727752</v>
+        <v>69.89591832985417</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -796,34 +802,34 @@
         <v>9</v>
       </c>
       <c t="s" r="B11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c t="n" r="D11">
         <v>34.46409126996851</v>
       </c>
       <c t="n" r="E11">
-        <v>34.46409126996851</v>
+        <v>18.407856521035637</v>
       </c>
       <c t="n" r="F11">
-        <v>18.407856521035637</v>
+        <v>179.07767055352065</v>
       </c>
       <c t="n" r="G11">
-        <v>18.407856521035637</v>
+        <v>98.83894210277083</v>
       </c>
       <c t="n" r="H11">
-        <v>179.07767055352065</v>
+        <v>33.8992053854773</v>
       </c>
       <c t="n" r="I11">
-        <v>98.83894210277083</v>
+        <v>20.999074543975873</v>
       </c>
       <c t="n" r="J11">
-        <v>34.46409126996851</v>
+        <v>87.50096806379176</v>
       </c>
       <c t="n" r="K11">
-        <v>34.46409126996851</v>
+        <v>58.18859032759983</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -831,34 +837,34 @@
         <v>10</v>
       </c>
       <c t="s" r="B12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="C12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c t="n" r="D12">
         <v>42.042941410097804</v>
       </c>
       <c t="n" r="E12">
-        <v>42.042941410097804</v>
+        <v>26.496812904001672</v>
       </c>
       <c t="n" r="F12">
-        <v>26.496812904001672</v>
+        <v>163.9119215464469</v>
       </c>
       <c t="n" r="G12">
-        <v>26.496812904001672</v>
+        <v>82.64517874273731</v>
       </c>
       <c t="n" r="H12">
-        <v>163.9119215464469</v>
+        <v>36.920278626696515</v>
       </c>
       <c t="n" r="I12">
-        <v>82.64517874273731</v>
+        <v>22.46307468235156</v>
       </c>
       <c t="n" r="J12">
-        <v>42.042941410097804</v>
+        <v>87.15104980791047</v>
       </c>
       <c t="n" r="K12">
-        <v>42.042941410097804</v>
+        <v>68.81228826927774</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -866,34 +872,34 @@
         <v>11</v>
       </c>
       <c t="s" r="B13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c t="s" r="C13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c t="n" r="D13">
         <v>40.58130513125199</v>
       </c>
       <c t="n" r="E13">
-        <v>40.58130513125199</v>
+        <v>23.805187129320558</v>
       </c>
       <c t="n" r="F13">
-        <v>23.805187129320558</v>
+        <v>152.53412888096224</v>
       </c>
       <c t="n" r="G13">
-        <v>23.805187129320558</v>
+        <v>74.93985838925313</v>
       </c>
       <c t="n" r="H13">
-        <v>152.53412888096224</v>
+        <v>39.88864820095023</v>
       </c>
       <c t="n" r="I13">
-        <v>74.93985838925313</v>
+        <v>22.31100920131318</v>
       </c>
       <c t="n" r="J13">
-        <v>40.58130513125199</v>
+        <v>73.57624968884606</v>
       </c>
       <c t="n" r="K13">
-        <v>40.58130513125199</v>
+        <v>67.8455605872734</v>
       </c>
     </row>
   </sheetData>
